--- a/templates/QARSF/SalesOrder_BaseData_SOAPI.xlsx
+++ b/templates/QARSF/SalesOrder_BaseData_SOAPI.xlsx
@@ -1,49 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Provar\RSTK_AutomationOrg\rsqasampleproj\templates\QARSF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57614341-A7A4-4390-BD43-BD562E48A3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{2C6C971B-7880-401B-A7F8-F234DD47B3BF}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="22680" yWindow="795" windowWidth="23850" windowHeight="9285" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="5" windowHeight="15840" windowWidth="29040" xWindow="20370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-1020"/>
   </bookViews>
   <sheets>
-    <sheet name="AddHeader" sheetId="14" r:id="rId1"/>
-    <sheet name="OpptyQuote" sheetId="35" r:id="rId2"/>
-    <sheet name="Account" sheetId="36" r:id="rId3"/>
-    <sheet name="AddLine" sheetId="15" r:id="rId4"/>
-    <sheet name="AddLine_Partial" sheetId="25" r:id="rId5"/>
-    <sheet name="InventoryQuantity" sheetId="12" r:id="rId6"/>
-    <sheet name="SOFulfillReverse" sheetId="28" r:id="rId7"/>
-    <sheet name="Requirements" sheetId="9" r:id="rId8"/>
-    <sheet name="SOORDDMD" sheetId="10" r:id="rId9"/>
-    <sheet name="Dimensions" sheetId="11" r:id="rId10"/>
-    <sheet name="SOFulfillment" sheetId="16" r:id="rId11"/>
-    <sheet name="Requirements_Partial" sheetId="26" r:id="rId12"/>
-    <sheet name="Payments" sheetId="17" r:id="rId13"/>
-    <sheet name="FirmAllLines" sheetId="18" r:id="rId14"/>
-    <sheet name="Allocate" sheetId="19" r:id="rId15"/>
-    <sheet name="PickPackShip" sheetId="20" r:id="rId16"/>
-    <sheet name="CreateInvoice" sheetId="21" r:id="rId17"/>
-    <sheet name="CreditMemo" sheetId="22" r:id="rId18"/>
-    <sheet name="NewInvoice" sheetId="24" r:id="rId19"/>
-    <sheet name="Requirements_Complete" sheetId="27" r:id="rId20"/>
-    <sheet name="SOORDDMD_Partial" sheetId="23" r:id="rId21"/>
-    <sheet name="SOORDDMD_Complete" sheetId="29" r:id="rId22"/>
-    <sheet name="RequirementsAfterPartialReverse" sheetId="30" r:id="rId23"/>
-    <sheet name="SOORDDMDAfterPartialReverse" sheetId="31" r:id="rId24"/>
-    <sheet name="ReqAfterReversal_Complete" sheetId="32" r:id="rId25"/>
-    <sheet name="SOORDDMDAfterReversal_Complete" sheetId="33" r:id="rId26"/>
-    <sheet name="SOFulfillReverse_Complete" sheetId="34" r:id="rId27"/>
+    <sheet name="AddHeader" r:id="rId1" sheetId="14"/>
+    <sheet name="OpptyQuote" r:id="rId2" sheetId="35"/>
+    <sheet name="Account" r:id="rId3" sheetId="36"/>
+    <sheet name="AddLine" r:id="rId4" sheetId="15"/>
+    <sheet name="AddLine_Partial" r:id="rId5" sheetId="25"/>
+    <sheet name="InventoryQuantity" r:id="rId6" sheetId="12"/>
+    <sheet name="SOFulfillReverse" r:id="rId7" sheetId="28"/>
+    <sheet name="Requirements" r:id="rId8" sheetId="9"/>
+    <sheet name="SOORDDMD" r:id="rId9" sheetId="10"/>
+    <sheet name="Dimensions" r:id="rId10" sheetId="11"/>
+    <sheet name="SOFulfillment" r:id="rId11" sheetId="16"/>
+    <sheet name="Requirements_Partial" r:id="rId12" sheetId="26"/>
+    <sheet name="Payments" r:id="rId13" sheetId="17"/>
+    <sheet name="FirmAllLines" r:id="rId14" sheetId="18"/>
+    <sheet name="Allocate" r:id="rId15" sheetId="19"/>
+    <sheet name="PickPackShip" r:id="rId16" sheetId="20"/>
+    <sheet name="CreateInvoice" r:id="rId17" sheetId="21"/>
+    <sheet name="CreditMemo" r:id="rId18" sheetId="22"/>
+    <sheet name="NewInvoice" r:id="rId19" sheetId="24"/>
+    <sheet name="Requirements_Complete" r:id="rId20" sheetId="27"/>
+    <sheet name="SOORDDMD_Partial" r:id="rId21" sheetId="23"/>
+    <sheet name="SOORDDMD_Complete" r:id="rId22" sheetId="29"/>
+    <sheet name="RequirementsAfterPartialReverse" r:id="rId23" sheetId="30"/>
+    <sheet name="SOORDDMDAfterPartialReverse" r:id="rId24" sheetId="31"/>
+    <sheet name="ReqAfterReversal_Complete" r:id="rId25" sheetId="32"/>
+    <sheet name="SOORDDMDAfterReversal_Complete" r:id="rId26" sheetId="33"/>
+    <sheet name="SOFulfillReverse_Complete" r:id="rId27" sheetId="34"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="191">
   <si>
     <t>Customer</t>
   </si>
@@ -407,86 +407,242 @@
     <t>QuantityAllocatedAfterReversal</t>
   </si>
   <si>
+    <t>168.0</t>
+  </si>
+  <si>
+    <t>90755.0</t>
+  </si>
+  <si>
+    <t>999583.0</t>
+  </si>
+  <si>
+    <t>AccountName</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Prospecting</t>
+  </si>
+  <si>
+    <t>0014100001zBdtL</t>
+  </si>
+  <si>
+    <t>PriceBook</t>
+  </si>
+  <si>
+    <t>PB_Automation</t>
+  </si>
+  <si>
+    <t>Rootstock Vendor</t>
+  </si>
+  <si>
+    <t>Rootstock Customer</t>
+  </si>
+  <si>
+    <t>Billing Street</t>
+  </si>
+  <si>
+    <t>Billing City</t>
+  </si>
+  <si>
+    <t>Billing State</t>
+  </si>
+  <si>
+    <t>Billing Zip Code</t>
+  </si>
+  <si>
+    <t>Billing Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M P-2,Opposite ABS Fitness Centre, Near Destination </t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>138.0</t>
+  </si>
+  <si>
+    <t>91189.0</t>
+  </si>
+  <si>
+    <t>999505.0</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>DiscountPct</t>
+  </si>
+  <si>
+    <t>137.0</t>
+  </si>
+  <si>
+    <t>91187.0</t>
+  </si>
+  <si>
+    <t>999504.0</t>
+  </si>
+  <si>
+    <t>136.0</t>
+  </si>
+  <si>
+    <t>91185.0</t>
+  </si>
+  <si>
+    <t>999503.0</t>
+  </si>
+  <si>
+    <t>135.0</t>
+  </si>
+  <si>
+    <t>91183.0</t>
+  </si>
+  <si>
+    <t>999502.0</t>
+  </si>
+  <si>
+    <t>134.0</t>
+  </si>
+  <si>
+    <t>91181.0</t>
+  </si>
+  <si>
+    <t>999501.0</t>
+  </si>
+  <si>
+    <t>133.0</t>
+  </si>
+  <si>
+    <t>91179.0</t>
+  </si>
+  <si>
+    <t>999500.0</t>
+  </si>
+  <si>
+    <t>132.0</t>
+  </si>
+  <si>
+    <t>91177.0</t>
+  </si>
+  <si>
+    <t>999499.0</t>
+  </si>
+  <si>
+    <t>182.0</t>
+  </si>
+  <si>
+    <t>999498.0</t>
+  </si>
+  <si>
+    <t>181.0</t>
+  </si>
+  <si>
+    <t>91175.0</t>
+  </si>
+  <si>
+    <t>999497.0</t>
+  </si>
+  <si>
+    <t>178.0</t>
+  </si>
+  <si>
+    <t>91172.0</t>
+  </si>
+  <si>
+    <t>999496.0</t>
+  </si>
+  <si>
+    <t>177.0</t>
+  </si>
+  <si>
+    <t>91170.0</t>
+  </si>
+  <si>
+    <t>999495.0</t>
+  </si>
+  <si>
+    <t>176.0</t>
+  </si>
+  <si>
+    <t>91168.0</t>
+  </si>
+  <si>
+    <t>999494.0</t>
+  </si>
+  <si>
+    <t>174.0</t>
+  </si>
+  <si>
+    <t>91164.0</t>
+  </si>
+  <si>
+    <t>999492.0</t>
+  </si>
+  <si>
+    <t>172.0</t>
+  </si>
+  <si>
+    <t>91160.0</t>
+  </si>
+  <si>
+    <t>999490.0</t>
+  </si>
+  <si>
     <t>170.0</t>
   </si>
   <si>
-    <t>90759.0</t>
-  </si>
-  <si>
-    <t>999585.0</t>
-  </si>
-  <si>
-    <t>168.0</t>
-  </si>
-  <si>
-    <t>90755.0</t>
-  </si>
-  <si>
-    <t>999583.0</t>
-  </si>
-  <si>
-    <t>AccountName</t>
-  </si>
-  <si>
-    <t>Stage</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Prospecting</t>
-  </si>
-  <si>
-    <t>0014100001zBdtL</t>
-  </si>
-  <si>
-    <t>PriceBook</t>
-  </si>
-  <si>
-    <t>PB_Automation</t>
-  </si>
-  <si>
-    <t>Rootstock Vendor</t>
-  </si>
-  <si>
-    <t>Rootstock Customer</t>
-  </si>
-  <si>
-    <t>Billing Street</t>
-  </si>
-  <si>
-    <t>Billing City</t>
-  </si>
-  <si>
-    <t>Billing State</t>
-  </si>
-  <si>
-    <t>Billing Zip Code</t>
-  </si>
-  <si>
-    <t>Billing Country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M P-2,Opposite ABS Fitness Centre, Near Destination </t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Phone</t>
+    <t>91156.0</t>
+  </si>
+  <si>
+    <t>999488.0</t>
+  </si>
+  <si>
+    <t>91152.0</t>
+  </si>
+  <si>
+    <t>999486.0</t>
+  </si>
+  <si>
+    <t>169.0</t>
+  </si>
+  <si>
+    <t>91154.0</t>
+  </si>
+  <si>
+    <t>999487.0</t>
+  </si>
+  <si>
+    <t>167.0</t>
+  </si>
+  <si>
+    <t>91150.0</t>
+  </si>
+  <si>
+    <t>999485.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="229" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,6 +687,1338 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -541,7 +2029,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="112">
     <border>
       <left/>
       <right/>
@@ -549,29 +2037,584 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="232">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="8" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="10" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="12" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="14" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="15" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="16" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="17" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="18" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="19" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="20" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="21" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="22" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="23" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="24" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="25" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="26" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="27" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="28" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="29" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="30" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="31" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="32" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="33" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="34" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="35" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="36" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="37" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="38" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="39" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="40" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="41" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="42" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="43" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="44" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="45" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="46" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="47" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="48" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="49" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="50" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="51" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="52" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="53" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="54" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="55" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="56" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="57" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="58" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="59" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="27" fillId="0" fontId="60" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="61" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="62" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="63" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="29" fillId="0" fontId="64" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="65" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="66" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="67" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="68" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="69" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="70" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="71" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="72" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="73" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="74" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="75" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="76" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="77" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="36" fillId="0" fontId="78" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="79" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="37" fillId="0" fontId="80" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="81" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="38" fillId="0" fontId="82" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="83" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="39" fillId="0" fontId="84" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="85" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="40" fillId="0" fontId="86" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="87" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="41" fillId="0" fontId="88" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="89" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="42" fillId="0" fontId="90" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="91" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="43" fillId="0" fontId="92" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="93" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="44" fillId="0" fontId="94" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="95" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="45" fillId="0" fontId="96" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="97" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="46" fillId="0" fontId="98" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="99" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="47" fillId="0" fontId="100" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="101" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="48" fillId="0" fontId="102" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="103" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="49" fillId="0" fontId="104" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="105" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="50" fillId="0" fontId="106" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="107" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="51" fillId="0" fontId="108" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="109" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="52" fillId="0" fontId="110" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="111" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="53" fillId="0" fontId="112" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="113" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="114" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="115" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="55" fillId="0" fontId="116" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="117" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="56" fillId="0" fontId="118" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="119" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="57" fillId="0" fontId="120" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="121" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="58" fillId="0" fontId="122" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="123" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="59" fillId="0" fontId="124" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="125" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="60" fillId="0" fontId="126" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="127" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="61" fillId="0" fontId="128" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="129" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="62" fillId="0" fontId="130" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="131" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="63" fillId="0" fontId="132" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="133" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="64" fillId="0" fontId="134" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="135" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="65" fillId="0" fontId="136" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="137" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="66" fillId="0" fontId="138" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="139" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="67" fillId="0" fontId="140" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="141" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="68" fillId="0" fontId="142" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="143" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="69" fillId="0" fontId="144" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="145" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="70" fillId="0" fontId="146" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="147" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="71" fillId="0" fontId="148" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="149" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="72" fillId="0" fontId="150" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="151" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="73" fillId="0" fontId="152" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="153" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="74" fillId="0" fontId="154" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="155" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="75" fillId="0" fontId="156" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="157" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="76" fillId="0" fontId="158" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="159" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="77" fillId="0" fontId="160" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="161" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="78" fillId="0" fontId="162" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="163" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="79" fillId="0" fontId="164" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="165" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="80" fillId="0" fontId="166" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="167" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="81" fillId="0" fontId="168" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="169" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="82" fillId="0" fontId="170" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="171" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="83" fillId="0" fontId="172" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="173" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="84" fillId="0" fontId="174" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="175" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="85" fillId="0" fontId="176" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="177" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="86" fillId="0" fontId="178" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="179" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="87" fillId="0" fontId="180" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="181" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="88" fillId="0" fontId="182" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="183" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="89" fillId="0" fontId="184" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="185" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="90" fillId="0" fontId="186" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="187" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="91" fillId="0" fontId="188" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="189" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="92" fillId="0" fontId="190" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="191" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="93" fillId="0" fontId="192" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="193" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="94" fillId="0" fontId="194" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="195" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="95" fillId="0" fontId="196" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="197" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="96" fillId="0" fontId="198" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="199" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="97" fillId="0" fontId="200" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="201" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="98" fillId="0" fontId="202" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="203" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="99" fillId="0" fontId="204" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="205" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="100" fillId="0" fontId="206" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="207" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="101" fillId="0" fontId="208" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="209" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="102" fillId="0" fontId="210" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="211" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="103" fillId="0" fontId="212" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="213" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="104" fillId="0" fontId="214" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="215" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="105" fillId="0" fontId="216" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="217" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="106" fillId="0" fontId="218" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="219" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="107" fillId="0" fontId="220" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="221" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="108" fillId="0" fontId="222" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="223" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="109" fillId="0" fontId="224" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="225" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="110" fillId="0" fontId="226" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="228" fillId="0" borderId="111" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -588,10 +2631,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -626,7 +2669,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -661,7 +2704,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -755,21 +2798,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -786,7 +2829,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -838,31 +2881,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28DC5EA-FDB2-4037-A650-5A7807A76B42}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28DC5EA-FDB2-4037-A650-5A7807A76B42}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -876,16 +2920,19 @@
         <v>37</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
@@ -899,22 +2946,25 @@
         <v>47</v>
       </c>
       <c r="E2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" t="s">
         <v>49</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>48</v>
       </c>
-      <c r="G2" t="b">
+      <c r="H2" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F9AC43-F5C0-448B-A649-9DBCCD7B9161}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F9AC43-F5C0-448B-A649-9DBCCD7B9161}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -923,14 +2973,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="49.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="49.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="4.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1067,12 +3117,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF22C85-8E73-4C9E-BDD3-18769C8E49D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF22C85-8E73-4C9E-BDD3-18769C8E49D7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1081,8 +3131,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1140,12 +3190,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6782BA98-E61D-4431-9112-C76634A66F5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6782BA98-E61D-4431-9112-C76634A66F5A}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1154,11 +3204,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1230,12 +3280,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE50E500-FAB1-49E8-9661-4AB0A4563365}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE50E500-FAB1-49E8-9661-4AB0A4563365}">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1244,12 +3294,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="39.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="39.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -1347,12 +3397,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84159D37-5001-4899-B291-F2339561C729}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84159D37-5001-4899-B291-F2339561C729}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1361,8 +3411,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1383,12 +3433,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE69876-B75C-4DFC-B997-7971113D9810}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE69876-B75C-4DFC-B997-7971113D9810}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1397,9 +3447,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1425,12 +3475,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147FD9F8-99A0-49D7-B2AA-6E743A510697}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147FD9F8-99A0-49D7-B2AA-6E743A510697}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1439,7 +3489,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1465,12 +3515,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAAF63BD-AF06-437B-BA27-733AD2C3F715}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAAF63BD-AF06-437B-BA27-733AD2C3F715}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1479,7 +3529,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1505,12 +3555,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F04BC8-3081-45F8-B57E-2D58C82A34B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F04BC8-3081-45F8-B57E-2D58C82A34B5}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1519,11 +3569,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1562,14 +3612,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://rstk-qa-rsf.my.salesforce.com/a6J1K000000Qgsa" xr:uid="{B403C99B-FB29-47EC-88C9-9C8C56000DD7}"/>
+    <hyperlink display="https://rstk-qa-rsf.my.salesforce.com/a6J1K000000Qgsa" r:id="rId1" ref="A2" xr:uid="{B403C99B-FB29-47EC-88C9-9C8C56000DD7}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F79A43-84B0-4993-8362-DACFE40E9F22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F79A43-84B0-4993-8362-DACFE40E9F22}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1578,11 +3628,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1621,14 +3671,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://rstk-qa-rsf.my.salesforce.com/a6J1K000000Qgsa" xr:uid="{3BFA7105-A112-4960-A7F9-2A4368599DE7}"/>
+    <hyperlink display="https://rstk-qa-rsf.my.salesforce.com/a6J1K000000Qgsa" r:id="rId1" ref="A2" xr:uid="{3BFA7105-A112-4960-A7F9-2A4368599DE7}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19203D2F-FFAF-491C-8970-57DC402AD9AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19203D2F-FFAF-491C-8970-57DC402AD9AD}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1637,39 +3687,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
         <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1696,12 +3746,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34AB7703-A132-4D94-B4B2-5B53828D31D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34AB7703-A132-4D94-B4B2-5B53828D31D7}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1710,11 +3760,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1786,12 +3836,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839423AC-CB72-4002-BDDB-22F64EF53450}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839423AC-CB72-4002-BDDB-22F64EF53450}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1800,9 +3850,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1874,12 +3924,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D680818B-991C-46F5-9780-F7CD6ABC56F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D680818B-991C-46F5-9780-F7CD6ABC56F8}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1888,9 +3938,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1963,16 +4013,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://rstk-qa-rsf.my.salesforce.com/a2S1K000002Syri?returnURL=https%3A//rstk-qa-rsf--rstk.na75.visual.force.com/apex/icitem%3FactionType%3Dview%26id%3Da1E1K000009KCVO%26returnURL%3Dhttps%253A%252F%252Frstk-qa-rsf--rstk.na75.visual.force.com%252Fapex%252Fsoprod%253FactionType%253Dview%2526id%253Da6J1K000000QgsQ%2526returnURL%253Dhttps%25253A%25252F%25252Frstk-qa-rsf--rstk.na75.visual.force.com%25252Fapex%25252FSalesOrder%25253Fid%25253Da5P1K000001kh5b%252526sfdc.override%25253D1" xr:uid="{A7A0B7C5-0DAD-4A85-BC42-8EE31670C8B7}"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://rstk-qa-rsf.my.salesforce.com/a2S1K000002Syrn?returnURL=https%3A//rstk-qa-rsf--rstk.na75.visual.force.com/apex/icitem%3FactionType%3Dview%26id%3Da1E1K000009KCVT%26returnURL%3Dhttps%253A%252F%252Frstk-qa-rsf--rstk.na75.visual.force.com%252Fapex%252Fsoprod%253FactionType%253Dview%2526id%253Da6J1K000000Qgsa%2526returnURL%253Dhttps%25253A%25252F%25252Frstk-qa-rsf--rstk.na75.visual.force.com%25252Fapex%25252FSalesOrder%25253Fid%25253Da5P1K000001kh5b%252526sfdc.override%25253D1" xr:uid="{05D872BE-2AD3-4EB7-ACBB-6AC7F297DEDE}"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://rstk-qa-rsf.my.salesforce.com/a2S1K000002Syrs?returnURL=https%3A//rstk-qa-rsf--rstk.na75.visual.force.com/apex/icitem%3FactionType%3Dview%26id%3Da1E1K000009KCVn%26returnURL%3Dhttps%253A%252F%252Frstk-qa-rsf--rstk.na75.visual.force.com%252Fapex%252Fsopcomp%253FactionType%253Dview%2526id%253Da661K000000HCf3QAG" xr:uid="{18C997D5-EF7B-45D0-87F6-8746B983EB1E}"/>
+    <hyperlink display="https://rstk-qa-rsf.my.salesforce.com/a2S1K000002Syri?returnURL=https%3A//rstk-qa-rsf--rstk.na75.visual.force.com/apex/icitem%3FactionType%3Dview%26id%3Da1E1K000009KCVO%26returnURL%3Dhttps%253A%252F%252Frstk-qa-rsf--rstk.na75.visual.force.com%252Fapex%252Fsoprod%253FactionType%253Dview%2526id%253Da6J1K000000QgsQ%2526returnURL%253Dhttps%25253A%25252F%25252Frstk-qa-rsf--rstk.na75.visual.force.com%25252Fapex%25252FSalesOrder%25253Fid%25253Da5P1K000001kh5b%252526sfdc.override%25253D1" r:id="rId1" ref="B2" xr:uid="{A7A0B7C5-0DAD-4A85-BC42-8EE31670C8B7}"/>
+    <hyperlink display="https://rstk-qa-rsf.my.salesforce.com/a2S1K000002Syrn?returnURL=https%3A//rstk-qa-rsf--rstk.na75.visual.force.com/apex/icitem%3FactionType%3Dview%26id%3Da1E1K000009KCVT%26returnURL%3Dhttps%253A%252F%252Frstk-qa-rsf--rstk.na75.visual.force.com%252Fapex%252Fsoprod%253FactionType%253Dview%2526id%253Da6J1K000000Qgsa%2526returnURL%253Dhttps%25253A%25252F%25252Frstk-qa-rsf--rstk.na75.visual.force.com%25252Fapex%25252FSalesOrder%25253Fid%25253Da5P1K000001kh5b%252526sfdc.override%25253D1" r:id="rId2" ref="B3" xr:uid="{05D872BE-2AD3-4EB7-ACBB-6AC7F297DEDE}"/>
+    <hyperlink display="https://rstk-qa-rsf.my.salesforce.com/a2S1K000002Syrs?returnURL=https%3A//rstk-qa-rsf--rstk.na75.visual.force.com/apex/icitem%3FactionType%3Dview%26id%3Da1E1K000009KCVn%26returnURL%3Dhttps%253A%252F%252Frstk-qa-rsf--rstk.na75.visual.force.com%252Fapex%252Fsopcomp%253FactionType%253Dview%2526id%253Da661K000000HCf3QAG" r:id="rId3" ref="B4" xr:uid="{18C997D5-EF7B-45D0-87F6-8746B983EB1E}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C6D3AC-065A-47FB-95A7-9989B2E95863}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C6D3AC-065A-47FB-95A7-9989B2E95863}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1981,11 +4031,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2040,12 +4090,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C743BA69-61A3-450A-B683-DB2A171BA337}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C743BA69-61A3-450A-B683-DB2A171BA337}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2054,9 +4104,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2129,16 +4179,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://rstk-qa-rsf.my.salesforce.com/a2S1K000002Syri?returnURL=https%3A//rstk-qa-rsf--rstk.na75.visual.force.com/apex/icitem%3FactionType%3Dview%26id%3Da1E1K000009KCVO%26returnURL%3Dhttps%253A%252F%252Frstk-qa-rsf--rstk.na75.visual.force.com%252Fapex%252Fsoprod%253FactionType%253Dview%2526id%253Da6J1K000000QgsQ%2526returnURL%253Dhttps%25253A%25252F%25252Frstk-qa-rsf--rstk.na75.visual.force.com%25252Fapex%25252FSalesOrder%25253Fid%25253Da5P1K000001kh5b%252526sfdc.override%25253D1" xr:uid="{6C11D32B-FB81-410A-A231-861B1D482C15}"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://rstk-qa-rsf.my.salesforce.com/a2S1K000002Syrn?returnURL=https%3A//rstk-qa-rsf--rstk.na75.visual.force.com/apex/icitem%3FactionType%3Dview%26id%3Da1E1K000009KCVT%26returnURL%3Dhttps%253A%252F%252Frstk-qa-rsf--rstk.na75.visual.force.com%252Fapex%252Fsoprod%253FactionType%253Dview%2526id%253Da6J1K000000Qgsa%2526returnURL%253Dhttps%25253A%25252F%25252Frstk-qa-rsf--rstk.na75.visual.force.com%25252Fapex%25252FSalesOrder%25253Fid%25253Da5P1K000001kh5b%252526sfdc.override%25253D1" xr:uid="{472CA47A-4420-4077-B967-70CEE48D947B}"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://rstk-qa-rsf.my.salesforce.com/a2S1K000002Syrs?returnURL=https%3A//rstk-qa-rsf--rstk.na75.visual.force.com/apex/icitem%3FactionType%3Dview%26id%3Da1E1K000009KCVn%26returnURL%3Dhttps%253A%252F%252Frstk-qa-rsf--rstk.na75.visual.force.com%252Fapex%252Fsopcomp%253FactionType%253Dview%2526id%253Da661K000000HCf3QAG" xr:uid="{C370B110-28B4-4159-8DE9-4985BB99070C}"/>
+    <hyperlink display="https://rstk-qa-rsf.my.salesforce.com/a2S1K000002Syri?returnURL=https%3A//rstk-qa-rsf--rstk.na75.visual.force.com/apex/icitem%3FactionType%3Dview%26id%3Da1E1K000009KCVO%26returnURL%3Dhttps%253A%252F%252Frstk-qa-rsf--rstk.na75.visual.force.com%252Fapex%252Fsoprod%253FactionType%253Dview%2526id%253Da6J1K000000QgsQ%2526returnURL%253Dhttps%25253A%25252F%25252Frstk-qa-rsf--rstk.na75.visual.force.com%25252Fapex%25252FSalesOrder%25253Fid%25253Da5P1K000001kh5b%252526sfdc.override%25253D1" r:id="rId1" ref="B2" xr:uid="{6C11D32B-FB81-410A-A231-861B1D482C15}"/>
+    <hyperlink display="https://rstk-qa-rsf.my.salesforce.com/a2S1K000002Syrn?returnURL=https%3A//rstk-qa-rsf--rstk.na75.visual.force.com/apex/icitem%3FactionType%3Dview%26id%3Da1E1K000009KCVT%26returnURL%3Dhttps%253A%252F%252Frstk-qa-rsf--rstk.na75.visual.force.com%252Fapex%252Fsoprod%253FactionType%253Dview%2526id%253Da6J1K000000Qgsa%2526returnURL%253Dhttps%25253A%25252F%25252Frstk-qa-rsf--rstk.na75.visual.force.com%25252Fapex%25252FSalesOrder%25253Fid%25253Da5P1K000001kh5b%252526sfdc.override%25253D1" r:id="rId2" ref="B3" xr:uid="{472CA47A-4420-4077-B967-70CEE48D947B}"/>
+    <hyperlink display="https://rstk-qa-rsf.my.salesforce.com/a2S1K000002Syrs?returnURL=https%3A//rstk-qa-rsf--rstk.na75.visual.force.com/apex/icitem%3FactionType%3Dview%26id%3Da1E1K000009KCVn%26returnURL%3Dhttps%253A%252F%252Frstk-qa-rsf--rstk.na75.visual.force.com%252Fapex%252Fsopcomp%253FactionType%253Dview%2526id%253Da661K000000HCf3QAG" r:id="rId3" ref="B4" xr:uid="{C370B110-28B4-4159-8DE9-4985BB99070C}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48A8C99-3427-4755-980C-6ADD943B45D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48A8C99-3427-4755-980C-6ADD943B45D7}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2147,11 +4197,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2206,12 +4256,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F14F98-E1CF-4409-B911-6A2EA03976BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F14F98-E1CF-4409-B911-6A2EA03976BF}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2220,9 +4270,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2295,16 +4345,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://rstk-qa-rsf.my.salesforce.com/a2S1K000002Syri?returnURL=https%3A//rstk-qa-rsf--rstk.na75.visual.force.com/apex/icitem%3FactionType%3Dview%26id%3Da1E1K000009KCVO%26returnURL%3Dhttps%253A%252F%252Frstk-qa-rsf--rstk.na75.visual.force.com%252Fapex%252Fsoprod%253FactionType%253Dview%2526id%253Da6J1K000000QgsQ%2526returnURL%253Dhttps%25253A%25252F%25252Frstk-qa-rsf--rstk.na75.visual.force.com%25252Fapex%25252FSalesOrder%25253Fid%25253Da5P1K000001kh5b%252526sfdc.override%25253D1" xr:uid="{62350E67-BFF5-45C2-ABEA-1D10C5F25F1B}"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://rstk-qa-rsf.my.salesforce.com/a2S1K000002Syrn?returnURL=https%3A//rstk-qa-rsf--rstk.na75.visual.force.com/apex/icitem%3FactionType%3Dview%26id%3Da1E1K000009KCVT%26returnURL%3Dhttps%253A%252F%252Frstk-qa-rsf--rstk.na75.visual.force.com%252Fapex%252Fsoprod%253FactionType%253Dview%2526id%253Da6J1K000000Qgsa%2526returnURL%253Dhttps%25253A%25252F%25252Frstk-qa-rsf--rstk.na75.visual.force.com%25252Fapex%25252FSalesOrder%25253Fid%25253Da5P1K000001kh5b%252526sfdc.override%25253D1" xr:uid="{21A72AE6-6ACB-4095-8353-A85A9BB77E7F}"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://rstk-qa-rsf.my.salesforce.com/a2S1K000002Syrs?returnURL=https%3A//rstk-qa-rsf--rstk.na75.visual.force.com/apex/icitem%3FactionType%3Dview%26id%3Da1E1K000009KCVn%26returnURL%3Dhttps%253A%252F%252Frstk-qa-rsf--rstk.na75.visual.force.com%252Fapex%252Fsopcomp%253FactionType%253Dview%2526id%253Da661K000000HCf3QAG" xr:uid="{E0322C54-204B-4A7C-96C4-93397E13B9BC}"/>
+    <hyperlink display="https://rstk-qa-rsf.my.salesforce.com/a2S1K000002Syri?returnURL=https%3A//rstk-qa-rsf--rstk.na75.visual.force.com/apex/icitem%3FactionType%3Dview%26id%3Da1E1K000009KCVO%26returnURL%3Dhttps%253A%252F%252Frstk-qa-rsf--rstk.na75.visual.force.com%252Fapex%252Fsoprod%253FactionType%253Dview%2526id%253Da6J1K000000QgsQ%2526returnURL%253Dhttps%25253A%25252F%25252Frstk-qa-rsf--rstk.na75.visual.force.com%25252Fapex%25252FSalesOrder%25253Fid%25253Da5P1K000001kh5b%252526sfdc.override%25253D1" r:id="rId1" ref="B2" xr:uid="{62350E67-BFF5-45C2-ABEA-1D10C5F25F1B}"/>
+    <hyperlink display="https://rstk-qa-rsf.my.salesforce.com/a2S1K000002Syrn?returnURL=https%3A//rstk-qa-rsf--rstk.na75.visual.force.com/apex/icitem%3FactionType%3Dview%26id%3Da1E1K000009KCVT%26returnURL%3Dhttps%253A%252F%252Frstk-qa-rsf--rstk.na75.visual.force.com%252Fapex%252Fsoprod%253FactionType%253Dview%2526id%253Da6J1K000000Qgsa%2526returnURL%253Dhttps%25253A%25252F%25252Frstk-qa-rsf--rstk.na75.visual.force.com%25252Fapex%25252FSalesOrder%25253Fid%25253Da5P1K000001kh5b%252526sfdc.override%25253D1" r:id="rId2" ref="B3" xr:uid="{21A72AE6-6ACB-4095-8353-A85A9BB77E7F}"/>
+    <hyperlink display="https://rstk-qa-rsf.my.salesforce.com/a2S1K000002Syrs?returnURL=https%3A//rstk-qa-rsf--rstk.na75.visual.force.com/apex/icitem%3FactionType%3Dview%26id%3Da1E1K000009KCVn%26returnURL%3Dhttps%253A%252F%252Frstk-qa-rsf--rstk.na75.visual.force.com%252Fapex%252Fsopcomp%253FactionType%253Dview%2526id%253Da661K000000HCf3QAG" r:id="rId3" ref="B4" xr:uid="{E0322C54-204B-4A7C-96C4-93397E13B9BC}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74DDBE81-5B75-4FBD-98C3-6BF4746462AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74DDBE81-5B75-4FBD-98C3-6BF4746462AB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2313,8 +4363,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2384,52 +4434,52 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4739B50-394B-4559-BF9B-DF47052D93D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4739B50-394B-4559-BF9B-DF47052D93D5}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="H1" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2440,54 +4490,56 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F2">
         <v>411038</v>
       </c>
       <c r="G2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H2">
         <v>1236547891</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513CC44F-3165-4623-A12A-9D782A7314E2}">
-  <dimension ref="A1:L6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513CC44F-3165-4623-A12A-9D782A7314E2}">
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G6"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -2507,25 +4559,31 @@
         <v>38</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -2545,25 +4603,31 @@
         <v>48</v>
       </c>
       <c r="G2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" t="s">
         <v>50</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
       <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
         <v>200</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
@@ -2583,22 +4647,28 @@
         <v>48</v>
       </c>
       <c r="G3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" t="s">
         <v>51</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>100</v>
       </c>
-      <c r="J3">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>2</v>
       </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
@@ -2618,22 +4688,28 @@
         <v>48</v>
       </c>
       <c r="G4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" t="s">
         <v>52</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
       <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
         <v>50</v>
       </c>
-      <c r="J4">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>3</v>
       </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
@@ -2652,23 +4728,29 @@
       <c r="F5" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>2</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>80</v>
       </c>
-      <c r="J5">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>4</v>
       </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>43</v>
       </c>
@@ -2687,30 +4769,36 @@
       <c r="F6" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>20</v>
       </c>
-      <c r="J6">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>5</v>
       </c>
-      <c r="K6" t="b">
+      <c r="M6" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E25C0C-7E5E-4EF3-83C4-E3E7C48EFA73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E25C0C-7E5E-4EF3-83C4-E3E7C48EFA73}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2719,17 +4807,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2949,24 +5037,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7667096-5FA7-42EB-ACDF-85A64908BEC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7667096-5FA7-42EB-ACDF-85A64908BEC3}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.046875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.83984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.3984375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.97265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2988,10 +5076,10 @@
         <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3002,10 +5090,10 @@
         <v>69</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>116</v>
+        <v>186</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -3016,10 +5104,10 @@
         <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>187</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -3027,13 +5115,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93AC2374-F530-4E66-8FB9-0C6AD2E8F4BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93AC2374-F530-4E66-8FB9-0C6AD2E8F4BB}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3127,12 +5215,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C60F850-BC07-45D7-8A71-F5FA33E22AE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C60F850-BC07-45D7-8A71-F5FA33E22AE5}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3141,11 +5229,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3217,12 +5305,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8A9A71-0839-422E-A3E9-10597D3A681D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8A9A71-0839-422E-A3E9-10597D3A681D}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3231,11 +5319,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="43.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="43.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3307,6 +5395,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/templates/QARSF/SalesOrder_BaseData_SOAPI.xlsx
+++ b/templates/QARSF/SalesOrder_BaseData_SOAPI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Provar\RSTK_AutomationOrg\rsqasampleproj\templates\QARSF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Provar\RSTK_Automation\rsqasampleproj\templates\QARSF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{2C6C971B-7880-401B-A7F8-F234DD47B3BF}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{EF98AF38-18AE-4262-A6AF-63D57845CC00}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
     <workbookView activeTab="5" windowHeight="15840" windowWidth="29040" xWindow="20370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-1020"/>
   </bookViews>
@@ -19,27 +19,29 @@
     <sheet name="AddLine" r:id="rId4" sheetId="15"/>
     <sheet name="AddLine_Partial" r:id="rId5" sheetId="25"/>
     <sheet name="InventoryQuantity" r:id="rId6" sheetId="12"/>
-    <sheet name="SOFulfillReverse" r:id="rId7" sheetId="28"/>
-    <sheet name="Requirements" r:id="rId8" sheetId="9"/>
-    <sheet name="SOORDDMD" r:id="rId9" sheetId="10"/>
-    <sheet name="Dimensions" r:id="rId10" sheetId="11"/>
-    <sheet name="SOFulfillment" r:id="rId11" sheetId="16"/>
-    <sheet name="Requirements_Partial" r:id="rId12" sheetId="26"/>
-    <sheet name="Payments" r:id="rId13" sheetId="17"/>
-    <sheet name="FirmAllLines" r:id="rId14" sheetId="18"/>
-    <sheet name="Allocate" r:id="rId15" sheetId="19"/>
-    <sheet name="PickPackShip" r:id="rId16" sheetId="20"/>
-    <sheet name="CreateInvoice" r:id="rId17" sheetId="21"/>
-    <sheet name="CreditMemo" r:id="rId18" sheetId="22"/>
-    <sheet name="NewInvoice" r:id="rId19" sheetId="24"/>
-    <sheet name="Requirements_Complete" r:id="rId20" sheetId="27"/>
-    <sheet name="SOORDDMD_Partial" r:id="rId21" sheetId="23"/>
-    <sheet name="SOORDDMD_Complete" r:id="rId22" sheetId="29"/>
-    <sheet name="RequirementsAfterPartialReverse" r:id="rId23" sheetId="30"/>
-    <sheet name="SOORDDMDAfterPartialReverse" r:id="rId24" sheetId="31"/>
-    <sheet name="ReqAfterReversal_Complete" r:id="rId25" sheetId="32"/>
-    <sheet name="SOORDDMDAfterReversal_Complete" r:id="rId26" sheetId="33"/>
-    <sheet name="SOFulfillReverse_Complete" r:id="rId27" sheetId="34"/>
+    <sheet name="Prepayment" r:id="rId7" sheetId="38"/>
+    <sheet name="SOFulfillReverse" r:id="rId8" sheetId="28"/>
+    <sheet name="Requirements" r:id="rId9" sheetId="9"/>
+    <sheet name="SOORDDMD" r:id="rId10" sheetId="10"/>
+    <sheet name="Dimensions" r:id="rId11" sheetId="11"/>
+    <sheet name="SOFulfillment_Partial" r:id="rId12" sheetId="37"/>
+    <sheet name="SOFulfillment" r:id="rId13" sheetId="16"/>
+    <sheet name="Requirements_Partial" r:id="rId14" sheetId="26"/>
+    <sheet name="Payments" r:id="rId15" sheetId="17"/>
+    <sheet name="FirmAllLines" r:id="rId16" sheetId="18"/>
+    <sheet name="Allocate" r:id="rId17" sheetId="19"/>
+    <sheet name="PickPackShip" r:id="rId18" sheetId="20"/>
+    <sheet name="CreateInvoice" r:id="rId19" sheetId="21"/>
+    <sheet name="CreditMemo" r:id="rId20" sheetId="22"/>
+    <sheet name="NewInvoice" r:id="rId21" sheetId="24"/>
+    <sheet name="Requirements_Complete" r:id="rId22" sheetId="27"/>
+    <sheet name="SOORDDMD_Partial" r:id="rId23" sheetId="23"/>
+    <sheet name="SOORDDMD_Complete" r:id="rId24" sheetId="29"/>
+    <sheet name="RequirementsAfterPartialReverse" r:id="rId25" sheetId="30"/>
+    <sheet name="SOORDDMDAfterPartialReverse" r:id="rId26" sheetId="31"/>
+    <sheet name="ReqAfterReversal_Complete" r:id="rId27" sheetId="32"/>
+    <sheet name="SOORDDMDAfterReversal_Complete" r:id="rId28" sheetId="33"/>
+    <sheet name="SOFulfillReverse_Complete" r:id="rId29" sheetId="34"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="182">
   <si>
     <t>Customer</t>
   </si>
@@ -407,232 +409,205 @@
     <t>QuantityAllocatedAfterReversal</t>
   </si>
   <si>
+    <t>AccountName</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Prospecting</t>
+  </si>
+  <si>
+    <t>0014100001zBdtL</t>
+  </si>
+  <si>
+    <t>PriceBook</t>
+  </si>
+  <si>
+    <t>PB_Automation</t>
+  </si>
+  <si>
+    <t>Rootstock Vendor</t>
+  </si>
+  <si>
+    <t>Rootstock Customer</t>
+  </si>
+  <si>
+    <t>Billing Street</t>
+  </si>
+  <si>
+    <t>Billing City</t>
+  </si>
+  <si>
+    <t>Billing State</t>
+  </si>
+  <si>
+    <t>Billing Zip Code</t>
+  </si>
+  <si>
+    <t>Billing Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M P-2,Opposite ABS Fitness Centre, Near Destination </t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>DiscountPct</t>
+  </si>
+  <si>
+    <t>184.0</t>
+  </si>
+  <si>
+    <t>90995.0</t>
+  </si>
+  <si>
+    <t>999414.0</t>
+  </si>
+  <si>
+    <t>183.0</t>
+  </si>
+  <si>
+    <t>90993.0</t>
+  </si>
+  <si>
+    <t>999413.0</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>ApplicationAvailability</t>
+  </si>
+  <si>
+    <t>ApplicationMethod</t>
+  </si>
+  <si>
+    <t>PrepayAmount</t>
+  </si>
+  <si>
+    <t>NewAmount</t>
+  </si>
+  <si>
+    <t>Sales Order</t>
+  </si>
+  <si>
+    <t>Maximum Amount</t>
+  </si>
+  <si>
+    <t>173.0</t>
+  </si>
+  <si>
+    <t>90972.0</t>
+  </si>
+  <si>
+    <t>999403.0</t>
+  </si>
+  <si>
+    <t>172.0</t>
+  </si>
+  <si>
+    <t>90970.0</t>
+  </si>
+  <si>
+    <t>999402.0</t>
+  </si>
+  <si>
+    <t>171.0</t>
+  </si>
+  <si>
+    <t>90968.0</t>
+  </si>
+  <si>
+    <t>999401.0</t>
+  </si>
+  <si>
+    <t>170.0</t>
+  </si>
+  <si>
+    <t>90966.0</t>
+  </si>
+  <si>
+    <t>999400.0</t>
+  </si>
+  <si>
+    <t>169.0</t>
+  </si>
+  <si>
+    <t>90964.0</t>
+  </si>
+  <si>
+    <t>999399.0</t>
+  </si>
+  <si>
     <t>168.0</t>
   </si>
   <si>
-    <t>90755.0</t>
-  </si>
-  <si>
-    <t>999583.0</t>
-  </si>
-  <si>
-    <t>AccountName</t>
-  </si>
-  <si>
-    <t>Stage</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Prospecting</t>
-  </si>
-  <si>
-    <t>0014100001zBdtL</t>
-  </si>
-  <si>
-    <t>PriceBook</t>
-  </si>
-  <si>
-    <t>PB_Automation</t>
-  </si>
-  <si>
-    <t>Rootstock Vendor</t>
-  </si>
-  <si>
-    <t>Rootstock Customer</t>
-  </si>
-  <si>
-    <t>Billing Street</t>
-  </si>
-  <si>
-    <t>Billing City</t>
-  </si>
-  <si>
-    <t>Billing State</t>
-  </si>
-  <si>
-    <t>Billing Zip Code</t>
-  </si>
-  <si>
-    <t>Billing Country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M P-2,Opposite ABS Fitness Centre, Near Destination </t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>138.0</t>
-  </si>
-  <si>
-    <t>91189.0</t>
-  </si>
-  <si>
-    <t>999505.0</t>
-  </si>
-  <si>
-    <t>ProductName</t>
-  </si>
-  <si>
-    <t>DiscountPct</t>
-  </si>
-  <si>
-    <t>137.0</t>
-  </si>
-  <si>
-    <t>91187.0</t>
-  </si>
-  <si>
-    <t>999504.0</t>
-  </si>
-  <si>
-    <t>136.0</t>
-  </si>
-  <si>
-    <t>91185.0</t>
-  </si>
-  <si>
-    <t>999503.0</t>
-  </si>
-  <si>
-    <t>135.0</t>
-  </si>
-  <si>
-    <t>91183.0</t>
-  </si>
-  <si>
-    <t>999502.0</t>
-  </si>
-  <si>
-    <t>134.0</t>
-  </si>
-  <si>
-    <t>91181.0</t>
-  </si>
-  <si>
-    <t>999501.0</t>
-  </si>
-  <si>
-    <t>133.0</t>
-  </si>
-  <si>
-    <t>91179.0</t>
-  </si>
-  <si>
-    <t>999500.0</t>
-  </si>
-  <si>
-    <t>132.0</t>
-  </si>
-  <si>
-    <t>91177.0</t>
-  </si>
-  <si>
-    <t>999499.0</t>
-  </si>
-  <si>
-    <t>182.0</t>
-  </si>
-  <si>
-    <t>999498.0</t>
-  </si>
-  <si>
-    <t>181.0</t>
-  </si>
-  <si>
-    <t>91175.0</t>
-  </si>
-  <si>
-    <t>999497.0</t>
-  </si>
-  <si>
-    <t>178.0</t>
-  </si>
-  <si>
-    <t>91172.0</t>
-  </si>
-  <si>
-    <t>999496.0</t>
-  </si>
-  <si>
-    <t>177.0</t>
-  </si>
-  <si>
-    <t>91170.0</t>
-  </si>
-  <si>
-    <t>999495.0</t>
-  </si>
-  <si>
-    <t>176.0</t>
-  </si>
-  <si>
-    <t>91168.0</t>
-  </si>
-  <si>
-    <t>999494.0</t>
-  </si>
-  <si>
-    <t>174.0</t>
-  </si>
-  <si>
-    <t>91164.0</t>
-  </si>
-  <si>
-    <t>999492.0</t>
-  </si>
-  <si>
-    <t>172.0</t>
-  </si>
-  <si>
-    <t>91160.0</t>
-  </si>
-  <si>
-    <t>999490.0</t>
-  </si>
-  <si>
-    <t>170.0</t>
-  </si>
-  <si>
-    <t>91156.0</t>
-  </si>
-  <si>
-    <t>999488.0</t>
-  </si>
-  <si>
-    <t>91152.0</t>
-  </si>
-  <si>
-    <t>999486.0</t>
-  </si>
-  <si>
-    <t>169.0</t>
-  </si>
-  <si>
-    <t>91154.0</t>
-  </si>
-  <si>
-    <t>999487.0</t>
+    <t>90962.0</t>
+  </si>
+  <si>
+    <t>999398.0</t>
   </si>
   <si>
     <t>167.0</t>
   </si>
   <si>
-    <t>91150.0</t>
-  </si>
-  <si>
-    <t>999485.0</t>
+    <t>90960.0</t>
+  </si>
+  <si>
+    <t>999397.0</t>
+  </si>
+  <si>
+    <t>165.0</t>
+  </si>
+  <si>
+    <t>90956.0</t>
+  </si>
+  <si>
+    <t>999395.0</t>
+  </si>
+  <si>
+    <t>166.0</t>
+  </si>
+  <si>
+    <t>90958.0</t>
+  </si>
+  <si>
+    <t>999396.0</t>
+  </si>
+  <si>
+    <t>164.0</t>
+  </si>
+  <si>
+    <t>90954.0</t>
+  </si>
+  <si>
+    <t>999394.0</t>
+  </si>
+  <si>
+    <t>163.0</t>
+  </si>
+  <si>
+    <t>90952.0</t>
+  </si>
+  <si>
+    <t>999393.0</t>
   </si>
 </sst>
 </file>
@@ -642,7 +617,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="229" x14ac:knownFonts="1">
+  <fonts count="121" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -687,654 +662,6 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2029,7 +1356,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="112">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -2208,173 +1535,11 @@
     <border>
       <bottom style="thin"/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="124">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -2499,116 +1664,8 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="55" fillId="0" fontId="116" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="117" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="56" fillId="0" fontId="118" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="119" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="57" fillId="0" fontId="120" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="121" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="58" fillId="0" fontId="122" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="123" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="59" fillId="0" fontId="124" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="125" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="60" fillId="0" fontId="126" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="127" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="61" fillId="0" fontId="128" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="129" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="62" fillId="0" fontId="130" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="131" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="63" fillId="0" fontId="132" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="133" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="64" fillId="0" fontId="134" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="135" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="65" fillId="0" fontId="136" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="137" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="66" fillId="0" fontId="138" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="139" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="67" fillId="0" fontId="140" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="141" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="68" fillId="0" fontId="142" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="143" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="69" fillId="0" fontId="144" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="145" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="70" fillId="0" fontId="146" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="147" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="71" fillId="0" fontId="148" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="149" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="72" fillId="0" fontId="150" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="151" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="73" fillId="0" fontId="152" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="153" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="74" fillId="0" fontId="154" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="155" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="75" fillId="0" fontId="156" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="157" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="76" fillId="0" fontId="158" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="159" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="77" fillId="0" fontId="160" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="161" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="78" fillId="0" fontId="162" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="163" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="79" fillId="0" fontId="164" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="165" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="80" fillId="0" fontId="166" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="167" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="81" fillId="0" fontId="168" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="169" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="82" fillId="0" fontId="170" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="171" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="83" fillId="0" fontId="172" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="173" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="84" fillId="0" fontId="174" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="175" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="85" fillId="0" fontId="176" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="177" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="86" fillId="0" fontId="178" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="179" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="87" fillId="0" fontId="180" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="181" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="88" fillId="0" fontId="182" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="183" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="89" fillId="0" fontId="184" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="185" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="90" fillId="0" fontId="186" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="187" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="91" fillId="0" fontId="188" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="189" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="92" fillId="0" fontId="190" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="191" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="93" fillId="0" fontId="192" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="193" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="94" fillId="0" fontId="194" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="195" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="95" fillId="0" fontId="196" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="197" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="96" fillId="0" fontId="198" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="199" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="97" fillId="0" fontId="200" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="201" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="98" fillId="0" fontId="202" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="203" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="99" fillId="0" fontId="204" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="205" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="100" fillId="0" fontId="206" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="207" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="101" fillId="0" fontId="208" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="209" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="102" fillId="0" fontId="210" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="211" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="103" fillId="0" fontId="212" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="213" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="104" fillId="0" fontId="214" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="215" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="105" fillId="0" fontId="216" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="217" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="106" fillId="0" fontId="218" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="219" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="107" fillId="0" fontId="220" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="221" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="108" fillId="0" fontId="222" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="223" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="109" fillId="0" fontId="224" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="225" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="110" fillId="0" fontId="226" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="228" fillId="0" borderId="111" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="120" fillId="0" borderId="57" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2892,7 +1949,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2964,6 +2021,96 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8A9A71-0839-422E-A3E9-10597D3A681D}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="43.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F9AC43-F5C0-448B-A649-9DBCCD7B9161}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -3121,12 +2268,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF22C85-8E73-4C9E-BDD3-18769C8E49D7}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82F9BB1-68F0-4613-926A-B15B6D3B7019}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3194,7 +2341,80 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF22C85-8E73-4C9E-BDD3-18769C8E49D7}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6782BA98-E61D-4431-9112-C76634A66F5A}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -3284,7 +2504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE50E500-FAB1-49E8-9661-4AB0A4563365}">
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -3401,7 +2621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84159D37-5001-4899-B291-F2339561C729}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -3437,7 +2657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE69876-B75C-4DFC-B997-7971113D9810}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -3479,7 +2699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147FD9F8-99A0-49D7-B2AA-6E743A510697}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -3519,7 +2739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAAF63BD-AF06-437B-BA27-733AD2C3F715}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -3555,124 +2775,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F04BC8-3081-45F8-B57E-2D58C82A34B5}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>50</v>
-      </c>
-      <c r="D2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://rstk-qa-rsf.my.salesforce.com/a6J1K000000Qgsa" r:id="rId1" ref="A2" xr:uid="{B403C99B-FB29-47EC-88C9-9C8C56000DD7}"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F79A43-84B0-4993-8362-DACFE40E9F22}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>50</v>
-      </c>
-      <c r="D2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://rstk-qa-rsf.my.salesforce.com/a6J1K000000Qgsa" r:id="rId1" ref="A2" xr:uid="{3BFA7105-A112-4960-A7F9-2A4368599DE7}"/>
-  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -3693,33 +2795,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C1" t="s">
         <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -3751,6 +2853,124 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F04BC8-3081-45F8-B57E-2D58C82A34B5}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="https://rstk-qa-rsf.my.salesforce.com/a6J1K000000Qgsa" r:id="rId1" ref="A2" xr:uid="{B403C99B-FB29-47EC-88C9-9C8C56000DD7}"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F79A43-84B0-4993-8362-DACFE40E9F22}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="https://rstk-qa-rsf.my.salesforce.com/a6J1K000000Qgsa" r:id="rId1" ref="A2" xr:uid="{3BFA7105-A112-4960-A7F9-2A4368599DE7}"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34AB7703-A132-4D94-B4B2-5B53828D31D7}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -3840,7 +3060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839423AC-CB72-4002-BDDB-22F64EF53450}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -3928,7 +3148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D680818B-991C-46F5-9780-F7CD6ABC56F8}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -4021,7 +3241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C6D3AC-065A-47FB-95A7-9989B2E95863}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -4094,7 +3314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C743BA69-61A3-450A-B683-DB2A171BA337}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -4187,7 +3407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48A8C99-3427-4755-980C-6ADD943B45D7}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -4260,7 +3480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F14F98-E1CF-4409-B911-6A2EA03976BF}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -4353,7 +3573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74DDBE81-5B75-4FBD-98C3-6BF4746462AB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -4458,28 +3678,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>131</v>
-      </c>
       <c r="H1" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -4490,19 +3710,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F2">
         <v>411038</v>
       </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H2">
         <v>1236547891</v>
@@ -4519,7 +3739,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="I2" sqref="I2:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4559,7 +3779,7 @@
         <v>38</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>1</v>
@@ -4571,7 +3791,7 @@
         <v>2</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>42</v>
@@ -4799,10 +4019,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E25C0C-7E5E-4EF3-83C4-E3E7C48EFA73}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4812,15 +4032,16 @@
     <col min="3" max="4" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -4840,25 +4061,28 @@
         <v>38</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -4878,25 +4102,28 @@
         <v>48</v>
       </c>
       <c r="G2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" t="s">
         <v>50</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>200</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
@@ -4916,22 +4143,25 @@
         <v>48</v>
       </c>
       <c r="G3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" t="s">
         <v>51</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>4</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>100</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
@@ -4951,22 +4181,25 @@
         <v>48</v>
       </c>
       <c r="G4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" t="s">
         <v>52</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>2</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>50</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
@@ -4985,23 +4218,26 @@
       <c r="F5" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>2</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>80</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>4</v>
       </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>43</v>
       </c>
@@ -5020,19 +4256,22 @@
       <c r="F6" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>20</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>5</v>
       </c>
-      <c r="K6" t="b">
+      <c r="L6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5045,8 +4284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7667096-5FA7-42EB-ACDF-85A64908BEC3}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5076,10 +4315,10 @@
         <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5090,10 +4329,10 @@
         <v>69</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -5104,10 +4343,10 @@
         <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="C4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5121,6 +4360,67 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7408AFB-90B8-4BA1-82FB-1B712E826885}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93AC2374-F530-4E66-8FB9-0C6AD2E8F4BB}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -5219,7 +4519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C60F850-BC07-45D7-8A71-F5FA33E22AE5}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -5307,94 +4607,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8A9A71-0839-422E-A3E9-10597D3A681D}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="43.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>